--- a/Assignments/Part 2/earnings_data.xlsx
+++ b/Assignments/Part 2/earnings_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy/Developer/Swansea Uni/CDT/Semester 2/CSCM21 - Abuses, Biases and Blessing of Data/CSCM21 - Abuses, Biases and Blessing of Data/Assignments/Part 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33106EE6-0E03-774F-9D65-59DD4226DD05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBECEC-DC7E-4849-BF98-E96DB8589B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{FFC702E2-7702-0744-83BE-E9181DF6423A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{FFC702E2-7702-0744-83BE-E9181DF6423A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="7">
   <si>
     <t>salary</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636B52A3-D4D9-0347-A6C3-FA7408F83019}">
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="117" workbookViewId="0">
       <selection activeCell="A194" sqref="A194:B214"/>
     </sheetView>
   </sheetViews>
@@ -549,7 +552,7 @@
       </c>
       <c r="D10">
         <f ca="1">RANDBETWEEN(47000,75000)</f>
-        <v>54190</v>
+        <v>61946</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,7 +567,7 @@
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D30" ca="1" si="0">RANDBETWEEN(47000,75000)</f>
-        <v>67885</v>
+        <v>55593</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +582,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>59124</v>
+        <v>48237</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,7 +597,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>57057</v>
+        <v>67018</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +612,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>52491</v>
+        <v>54560</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -624,7 +627,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>56193</v>
+        <v>60606</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +642,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>69772</v>
+        <v>48647</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,7 +657,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>72075</v>
+        <v>47327</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +672,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>62974</v>
+        <v>54756</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,7 +687,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>70620</v>
+        <v>66506</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,7 +702,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>47974</v>
+        <v>47634</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,7 +717,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>56691</v>
+        <v>57992</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -729,7 +732,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>67378</v>
+        <v>55856</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,7 +747,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>57882</v>
+        <v>47442</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,7 +762,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>72557</v>
+        <v>69410</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -774,7 +777,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>62513</v>
+        <v>57512</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,7 +792,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>62971</v>
+        <v>67797</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -804,7 +807,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>53242</v>
+        <v>51466</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,7 +822,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>74922</v>
+        <v>53053</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,7 +837,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>53855</v>
+        <v>67707</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,7 +852,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>57663</v>
+        <v>71579</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1018,7 +1021,7 @@
       </c>
       <c r="D42">
         <f ca="1">RANDBETWEEN(55000,84000)</f>
-        <v>74418</v>
+        <v>66139</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,7 +1036,7 @@
       </c>
       <c r="D43">
         <f t="shared" ref="D43:D61" ca="1" si="1">RANDBETWEEN(55000,84000)</f>
-        <v>81974</v>
+        <v>63569</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,7 +1051,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>78642</v>
+        <v>78129</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,7 +1066,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>58090</v>
+        <v>65730</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1078,7 +1081,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>69040</v>
+        <v>75477</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,7 +1096,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>80266</v>
+        <v>67932</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1108,7 +1111,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>62333</v>
+        <v>55178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1123,7 +1126,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>60024</v>
+        <v>68877</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1138,7 +1141,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>60944</v>
+        <v>78615</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>57789</v>
+        <v>77780</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1168,7 +1171,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>71729</v>
+        <v>64783</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,7 +1186,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>66264</v>
+        <v>58727</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1198,7 +1201,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>82465</v>
+        <v>74399</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,7 +1216,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>70121</v>
+        <v>78193</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,7 +1231,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>63597</v>
+        <v>69294</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1246,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>67595</v>
+        <v>59557</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1258,7 +1261,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>81220</v>
+        <v>62042</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,7 +1276,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>73602</v>
+        <v>68260</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1288,7 +1291,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>66259</v>
+        <v>60159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1303,7 +1306,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>55791</v>
+        <v>69680</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,7 +1461,7 @@
       </c>
       <c r="D72">
         <f ca="1">RANDBETWEEN(57000,90000)</f>
-        <v>81532</v>
+        <v>59052</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,7 +1476,7 @@
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D92" ca="1" si="2">RANDBETWEEN(57000,90000)</f>
-        <v>78845</v>
+        <v>86486</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1488,7 +1491,7 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>69076</v>
+        <v>57591</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,7 +1506,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>86567</v>
+        <v>82507</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1518,7 +1521,7 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>79942</v>
+        <v>66952</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1533,7 +1536,7 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>85559</v>
+        <v>63287</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1548,7 +1551,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>57786</v>
+        <v>60620</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,7 +1566,7 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>76416</v>
+        <v>89379</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,7 +1581,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>84295</v>
+        <v>79824</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1596,7 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>82755</v>
+        <v>83394</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1608,7 +1611,7 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>71702</v>
+        <v>73544</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1623,7 +1626,7 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>82295</v>
+        <v>82538</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,7 +1641,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>75436</v>
+        <v>85286</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,7 +1656,7 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>64113</v>
+        <v>59536</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,7 +1671,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>71311</v>
+        <v>67034</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,7 +1686,7 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>59558</v>
+        <v>59846</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,7 +1701,7 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>75322</v>
+        <v>73242</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,7 +1716,7 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>82399</v>
+        <v>75364</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,7 +1731,7 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>58263</v>
+        <v>63971</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,7 +1746,7 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>76790</v>
+        <v>58977</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,7 +1761,7 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>79570</v>
+        <v>75928</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,7 +1916,7 @@
       </c>
       <c r="D103">
         <f ca="1">RANDBETWEEN(52000,89000)</f>
-        <v>62039</v>
+        <v>86372</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1928,7 +1931,7 @@
       </c>
       <c r="D104">
         <f t="shared" ref="D104:D123" ca="1" si="3">RANDBETWEEN(52000,89000)</f>
-        <v>83071</v>
+        <v>86538</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1946,7 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>61849</v>
+        <v>74373</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,7 +1961,7 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>61795</v>
+        <v>82136</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,7 +1976,7 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>72868</v>
+        <v>78509</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -1988,7 +1991,7 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>66765</v>
+        <v>83519</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,7 +2006,7 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>55158</v>
+        <v>61802</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,7 +2021,7 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>55877</v>
+        <v>62924</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2033,7 +2036,7 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>73589</v>
+        <v>71800</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2048,7 +2051,7 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>88608</v>
+        <v>65922</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2063,7 +2066,7 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>56781</v>
+        <v>61591</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,7 +2081,7 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>69109</v>
+        <v>64110</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,7 +2096,7 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>87003</v>
+        <v>66336</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,7 +2111,7 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>77127</v>
+        <v>57955</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2123,7 +2126,7 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>55300</v>
+        <v>77625</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,7 +2141,7 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>58938</v>
+        <v>68477</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2156,7 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>63702</v>
+        <v>85350</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,7 +2171,7 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>76539</v>
+        <v>63603</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,7 +2186,7 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>79806</v>
+        <v>83970</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2198,7 +2201,7 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>63451</v>
+        <v>54520</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2213,7 +2216,7 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>53272</v>
+        <v>64329</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,7 +2385,7 @@
       </c>
       <c r="D135">
         <f ca="1">RANDBETWEEN(55000,87000)</f>
-        <v>59285</v>
+        <v>57395</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2397,7 +2400,7 @@
       </c>
       <c r="D136">
         <f t="shared" ref="D136:D154" ca="1" si="4">RANDBETWEEN(55000,87000)</f>
-        <v>86707</v>
+        <v>74955</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,7 +2415,7 @@
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>77073</v>
+        <v>61155</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2427,7 +2430,7 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>60743</v>
+        <v>60169</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,7 +2445,7 @@
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>83556</v>
+        <v>83254</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,7 +2460,7 @@
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>62836</v>
+        <v>82288</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,7 +2475,7 @@
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>73186</v>
+        <v>78387</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2487,7 +2490,7 @@
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>58452</v>
+        <v>80569</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,7 +2505,7 @@
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>70083</v>
+        <v>78080</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,7 +2520,7 @@
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>83972</v>
+        <v>72067</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,7 +2535,7 @@
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>84641</v>
+        <v>56532</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2547,7 +2550,7 @@
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>64784</v>
+        <v>62533</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -2562,7 +2565,7 @@
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>65807</v>
+        <v>67904</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,7 +2580,7 @@
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>82260</v>
+        <v>81325</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,7 +2595,7 @@
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>55836</v>
+        <v>81193</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,7 +2610,7 @@
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>73828</v>
+        <v>67079</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,7 +2625,7 @@
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>62096</v>
+        <v>60226</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -2637,7 +2640,7 @@
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>67915</v>
+        <v>82864</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -2652,7 +2655,7 @@
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>78208</v>
+        <v>85212</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,7 +2670,7 @@
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>80896</v>
+        <v>84155</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2825,7 @@
       </c>
       <c r="D165">
         <f ca="1">RANDBETWEEN(59000,89000)</f>
-        <v>65707</v>
+        <v>80749</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -2837,7 +2840,7 @@
       </c>
       <c r="D166">
         <f t="shared" ref="D166:D184" ca="1" si="5">RANDBETWEEN(59000,89000)</f>
-        <v>79906</v>
+        <v>86697</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,7 +2855,7 @@
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>65276</v>
+        <v>74986</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2867,7 +2870,7 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>69828</v>
+        <v>75684</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -2882,7 +2885,7 @@
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>70121</v>
+        <v>62310</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,7 +2900,7 @@
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>75628</v>
+        <v>66991</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -2912,7 +2915,7 @@
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>68390</v>
+        <v>64094</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -2927,7 +2930,7 @@
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>68679</v>
+        <v>64274</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2942,7 +2945,7 @@
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>81263</v>
+        <v>82391</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,7 +2960,7 @@
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>61883</v>
+        <v>78900</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,7 +2975,7 @@
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>80045</v>
+        <v>65453</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -2987,7 +2990,7 @@
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>80936</v>
+        <v>84419</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,7 +3005,7 @@
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>83423</v>
+        <v>74636</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3017,7 +3020,7 @@
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>80079</v>
+        <v>87175</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3032,7 +3035,7 @@
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>79520</v>
+        <v>84979</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3047,7 +3050,7 @@
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>76932</v>
+        <v>70826</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3062,7 +3065,7 @@
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>65373</v>
+        <v>69923</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3077,7 +3080,7 @@
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>65246</v>
+        <v>78703</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3092,7 +3095,7 @@
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="5"/>
-        <v>70752</v>
+        <v>64998</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,7 +3110,7 @@
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="5"/>
-        <v>69739</v>
+        <v>66180</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,7 +3241,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -3262,7 +3265,7 @@
       </c>
       <c r="D195">
         <f ca="1">RANDBETWEEN(67000,96000)</f>
-        <v>80710</v>
+        <v>73610</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3277,7 +3280,7 @@
       </c>
       <c r="D196">
         <f t="shared" ref="D196:D214" ca="1" si="6">RANDBETWEEN(67000,96000)</f>
-        <v>89970</v>
+        <v>73740</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3292,7 +3295,7 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>85360</v>
+        <v>84591</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,7 +3310,7 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>70836</v>
+        <v>91201</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +3325,7 @@
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>84990</v>
+        <v>70172</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,7 +3340,7 @@
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>72595</v>
+        <v>90260</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,7 +3355,7 @@
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>72897</v>
+        <v>73355</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,7 +3370,7 @@
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>68320</v>
+        <v>83965</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,7 +3385,7 @@
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>82103</v>
+        <v>85582</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,7 +3400,7 @@
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>82646</v>
+        <v>90523</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,7 +3415,7 @@
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>76644</v>
+        <v>76873</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3427,7 +3430,7 @@
       </c>
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>67655</v>
+        <v>82814</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,7 +3445,7 @@
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>94085</v>
+        <v>78974</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,7 +3460,7 @@
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>69966</v>
+        <v>89965</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3472,7 +3475,7 @@
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>91470</v>
+        <v>95246</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,7 +3490,7 @@
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>77358</v>
+        <v>70171</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3502,7 +3505,7 @@
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>85378</v>
+        <v>84729</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3517,7 +3520,7 @@
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>79071</v>
+        <v>87390</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3532,7 +3535,7 @@
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>83485</v>
+        <v>71823</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3547,7 +3550,7 @@
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>67829</v>
+        <v>91424</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3744,7 +3747,7 @@
       </c>
       <c r="D228">
         <f ca="1">RANDBETWEEN(75000,104000)</f>
-        <v>96395</v>
+        <v>84168</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3759,7 +3762,7 @@
       </c>
       <c r="D229">
         <f t="shared" ref="D229:D234" ca="1" si="7">RANDBETWEEN(75000,104000)</f>
-        <v>79049</v>
+        <v>90389</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,7 +3777,7 @@
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="7"/>
-        <v>91073</v>
+        <v>93616</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -3789,7 +3792,7 @@
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="7"/>
-        <v>78237</v>
+        <v>82826</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3804,7 +3807,7 @@
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="7"/>
-        <v>91720</v>
+        <v>97076</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3819,7 +3822,7 @@
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="7"/>
-        <v>98074</v>
+        <v>102142</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3834,7 +3837,7 @@
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="7"/>
-        <v>80658</v>
+        <v>88621</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3849,7 +3852,7 @@
       </c>
       <c r="D235">
         <f ca="1">RANDBETWEEN(79000,107000)</f>
-        <v>92740</v>
+        <v>100489</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3864,7 +3867,7 @@
       </c>
       <c r="D236">
         <f t="shared" ref="D236:D244" ca="1" si="8">RANDBETWEEN(79000,107000)</f>
-        <v>80350</v>
+        <v>94919</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3879,7 +3882,7 @@
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="8"/>
-        <v>88287</v>
+        <v>98316</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,7 +3897,7 @@
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="8"/>
-        <v>103522</v>
+        <v>102832</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3909,7 +3912,7 @@
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="8"/>
-        <v>89031</v>
+        <v>104757</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3924,7 +3927,7 @@
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="8"/>
-        <v>89625</v>
+        <v>89108</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,7 +3942,7 @@
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="8"/>
-        <v>104789</v>
+        <v>93048</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3954,7 +3957,7 @@
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="8"/>
-        <v>81751</v>
+        <v>80497</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3969,7 +3972,7 @@
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="8"/>
-        <v>101123</v>
+        <v>90249</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,7 +3987,7 @@
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="8"/>
-        <v>96534</v>
+        <v>97633</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -3999,7 +4002,7 @@
       </c>
       <c r="D245">
         <f ca="1">RANDBETWEEN(84000,112000)</f>
-        <v>100800</v>
+        <v>95932</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -4014,7 +4017,7 @@
       </c>
       <c r="D246">
         <f t="shared" ref="D246:D254" ca="1" si="9">RANDBETWEEN(84000,112000)</f>
-        <v>93779</v>
+        <v>85547</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -4029,7 +4032,7 @@
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="9"/>
-        <v>99839</v>
+        <v>99537</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -4044,7 +4047,7 @@
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="9"/>
-        <v>108541</v>
+        <v>103543</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4062,7 @@
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="9"/>
-        <v>107960</v>
+        <v>102690</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -4074,7 +4077,7 @@
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="9"/>
-        <v>88196</v>
+        <v>100295</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4089,7 +4092,7 @@
       </c>
       <c r="D251">
         <f t="shared" ca="1" si="9"/>
-        <v>97094</v>
+        <v>88520</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,7 +4107,7 @@
       </c>
       <c r="D252">
         <f t="shared" ca="1" si="9"/>
-        <v>98654</v>
+        <v>92438</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -4119,7 +4122,7 @@
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="9"/>
-        <v>85599</v>
+        <v>106052</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -4134,7 +4137,7 @@
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="9"/>
-        <v>106602</v>
+        <v>92912</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -4149,7 +4152,7 @@
       </c>
       <c r="D255">
         <f ca="1">RANDBETWEEN(87000,114000)</f>
-        <v>113015</v>
+        <v>106404</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4178,7 +4181,7 @@
       </c>
       <c r="D257">
         <f t="shared" ref="D257:D264" ca="1" si="10">RANDBETWEEN(87000,114000)</f>
-        <v>109548</v>
+        <v>105589</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4193,7 +4196,7 @@
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="10"/>
-        <v>104217</v>
+        <v>90899</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,7 +4211,7 @@
       </c>
       <c r="D259">
         <f t="shared" ca="1" si="10"/>
-        <v>96576</v>
+        <v>92189</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,7 +4226,7 @@
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="10"/>
-        <v>105142</v>
+        <v>111465</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,7 +4241,7 @@
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="10"/>
-        <v>112765</v>
+        <v>87084</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,7 +4256,7 @@
       </c>
       <c r="D262">
         <f t="shared" ca="1" si="10"/>
-        <v>87263</v>
+        <v>106999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,7 +4271,7 @@
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="10"/>
-        <v>87410</v>
+        <v>96396</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,7 +4286,7 @@
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="10"/>
-        <v>105691</v>
+        <v>98152</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,7 +4329,7 @@
       </c>
       <c r="D267">
         <f t="shared" ref="D267:D273" ca="1" si="11">RANDBETWEEN(89000,114000)</f>
-        <v>112086</v>
+        <v>99773</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4341,7 +4344,7 @@
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="11"/>
-        <v>95703</v>
+        <v>98507</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -4356,7 +4359,7 @@
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="11"/>
-        <v>105280</v>
+        <v>110924</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4371,7 +4374,7 @@
       </c>
       <c r="D270">
         <f t="shared" ca="1" si="11"/>
-        <v>107504</v>
+        <v>93840</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4386,7 +4389,7 @@
       </c>
       <c r="D271">
         <f t="shared" ca="1" si="11"/>
-        <v>90413</v>
+        <v>111631</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -4401,7 +4404,7 @@
       </c>
       <c r="D272">
         <f t="shared" ca="1" si="11"/>
-        <v>107967</v>
+        <v>92243</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -4416,7 +4419,7 @@
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="11"/>
-        <v>113847</v>
+        <v>90957</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,7 +4434,7 @@
       </c>
       <c r="D274">
         <f ca="1">RANDBETWEEN(89000,114000)</f>
-        <v>99156</v>
+        <v>113925</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,7 +4477,7 @@
       </c>
       <c r="D277">
         <f t="shared" ref="D277:D283" ca="1" si="12">RANDBETWEEN(90000,112000)</f>
-        <v>99548</v>
+        <v>104056</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,7 +4492,7 @@
       </c>
       <c r="D278">
         <f t="shared" ca="1" si="12"/>
-        <v>91879</v>
+        <v>105888</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,7 +4507,7 @@
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="12"/>
-        <v>105486</v>
+        <v>106947</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4519,7 +4522,7 @@
       </c>
       <c r="D280">
         <f t="shared" ca="1" si="12"/>
-        <v>111478</v>
+        <v>110081</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4534,7 +4537,7 @@
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="12"/>
-        <v>102554</v>
+        <v>104773</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,7 +4552,7 @@
       </c>
       <c r="D282">
         <f t="shared" ca="1" si="12"/>
-        <v>110349</v>
+        <v>90703</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4564,7 +4567,7 @@
       </c>
       <c r="D283">
         <f t="shared" ca="1" si="12"/>
-        <v>111031</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4579,7 +4582,7 @@
       </c>
       <c r="D284">
         <f ca="1">RANDBETWEEN(90000,112000)</f>
-        <v>108630</v>
+        <v>111637</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4622,7 +4625,7 @@
       </c>
       <c r="D287">
         <f t="shared" ref="D287:D293" ca="1" si="13">RANDBETWEEN(86000,115000)</f>
-        <v>88065</v>
+        <v>89734</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4637,7 +4640,7 @@
       </c>
       <c r="D288">
         <f t="shared" ca="1" si="13"/>
-        <v>101976</v>
+        <v>88210</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4652,7 +4655,7 @@
       </c>
       <c r="D289">
         <f t="shared" ca="1" si="13"/>
-        <v>101898</v>
+        <v>105464</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -4667,7 +4670,7 @@
       </c>
       <c r="D290">
         <f t="shared" ca="1" si="13"/>
-        <v>106734</v>
+        <v>98516</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4682,7 +4685,7 @@
       </c>
       <c r="D291">
         <f t="shared" ca="1" si="13"/>
-        <v>99272</v>
+        <v>101026</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,7 +4700,7 @@
       </c>
       <c r="D292">
         <f t="shared" ca="1" si="13"/>
-        <v>89068</v>
+        <v>96436</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,7 +4715,7 @@
       </c>
       <c r="D293">
         <f t="shared" ca="1" si="13"/>
-        <v>96934</v>
+        <v>97772</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4727,7 +4730,7 @@
       </c>
       <c r="D294">
         <f ca="1">RANDBETWEEN(86000,115000)</f>
-        <v>101271</v>
+        <v>111334</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,7 +4773,7 @@
       </c>
       <c r="D297">
         <f t="shared" ref="D297:D303" ca="1" si="14">RANDBETWEEN(91000,120000)</f>
-        <v>106209</v>
+        <v>102862</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -4785,7 +4788,7 @@
       </c>
       <c r="D298">
         <f t="shared" ca="1" si="14"/>
-        <v>109207</v>
+        <v>116482</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -4800,7 +4803,7 @@
       </c>
       <c r="D299">
         <f t="shared" ca="1" si="14"/>
-        <v>112474</v>
+        <v>97077</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,7 +4818,7 @@
       </c>
       <c r="D300">
         <f t="shared" ca="1" si="14"/>
-        <v>103232</v>
+        <v>106852</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -4830,7 +4833,7 @@
       </c>
       <c r="D301">
         <f t="shared" ca="1" si="14"/>
-        <v>101061</v>
+        <v>114557</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -4845,7 +4848,7 @@
       </c>
       <c r="D302">
         <f t="shared" ca="1" si="14"/>
-        <v>111153</v>
+        <v>117083</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -4860,7 +4863,7 @@
       </c>
       <c r="D303">
         <f t="shared" ca="1" si="14"/>
-        <v>114647</v>
+        <v>98823</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,7 +4878,7 @@
       </c>
       <c r="D304">
         <f ca="1">RANDBETWEEN(91000,120000)</f>
-        <v>107195</v>
+        <v>91143</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -4918,7 +4921,7 @@
       </c>
       <c r="D307">
         <f t="shared" ref="D307:D313" ca="1" si="15">RANDBETWEEN(97000,123000)</f>
-        <v>108817</v>
+        <v>113822</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -4933,7 +4936,7 @@
       </c>
       <c r="D308">
         <f t="shared" ca="1" si="15"/>
-        <v>120664</v>
+        <v>116655</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -4948,7 +4951,7 @@
       </c>
       <c r="D309">
         <f t="shared" ca="1" si="15"/>
-        <v>104874</v>
+        <v>101005</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -4963,7 +4966,7 @@
       </c>
       <c r="D310">
         <f t="shared" ca="1" si="15"/>
-        <v>102923</v>
+        <v>109849</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,7 +4981,7 @@
       </c>
       <c r="D311">
         <f t="shared" ca="1" si="15"/>
-        <v>99021</v>
+        <v>100888</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -4993,7 +4996,7 @@
       </c>
       <c r="D312">
         <f t="shared" ca="1" si="15"/>
-        <v>97308</v>
+        <v>108898</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,7 +5011,7 @@
       </c>
       <c r="D313">
         <f t="shared" ca="1" si="15"/>
-        <v>115671</v>
+        <v>106283</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,7 +5026,7 @@
       </c>
       <c r="D314">
         <f ca="1">RANDBETWEEN(97000,123000)</f>
-        <v>98582</v>
+        <v>107719</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -5066,7 +5069,7 @@
       </c>
       <c r="D317">
         <f t="shared" ref="D317:D323" ca="1" si="16">RANDBETWEEN(87000,125000)</f>
-        <v>97375</v>
+        <v>112965</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -5081,7 +5084,7 @@
       </c>
       <c r="D318">
         <f t="shared" ca="1" si="16"/>
-        <v>115690</v>
+        <v>97268</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,7 +5099,7 @@
       </c>
       <c r="D319">
         <f t="shared" ca="1" si="16"/>
-        <v>111317</v>
+        <v>93985</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,7 +5114,7 @@
       </c>
       <c r="D320">
         <f t="shared" ca="1" si="16"/>
-        <v>102059</v>
+        <v>96160</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,7 +5129,7 @@
       </c>
       <c r="D321">
         <f t="shared" ca="1" si="16"/>
-        <v>108207</v>
+        <v>99398</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,7 +5144,7 @@
       </c>
       <c r="D322">
         <f t="shared" ca="1" si="16"/>
-        <v>97359</v>
+        <v>95538</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -5156,7 +5159,7 @@
       </c>
       <c r="D323">
         <f t="shared" ca="1" si="16"/>
-        <v>124018</v>
+        <v>93687</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -5171,7 +5174,7 @@
       </c>
       <c r="D324">
         <f ca="1">RANDBETWEEN(87000,125000)</f>
-        <v>113567</v>
+        <v>121779</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -5214,7 +5217,7 @@
       </c>
       <c r="D327">
         <f t="shared" ref="D327:D333" ca="1" si="17">RANDBETWEEN(102000,125000)</f>
-        <v>116003</v>
+        <v>111603</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,7 +5232,7 @@
       </c>
       <c r="D328">
         <f t="shared" ca="1" si="17"/>
-        <v>119018</v>
+        <v>111197</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -5244,7 +5247,7 @@
       </c>
       <c r="D329">
         <f t="shared" ca="1" si="17"/>
-        <v>111946</v>
+        <v>113700</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -5259,7 +5262,7 @@
       </c>
       <c r="D330">
         <f t="shared" ca="1" si="17"/>
-        <v>106738</v>
+        <v>119075</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -5274,7 +5277,7 @@
       </c>
       <c r="D331">
         <f t="shared" ca="1" si="17"/>
-        <v>115830</v>
+        <v>110390</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -5289,7 +5292,7 @@
       </c>
       <c r="D332">
         <f t="shared" ca="1" si="17"/>
-        <v>107357</v>
+        <v>114385</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -5304,7 +5307,7 @@
       </c>
       <c r="D333">
         <f t="shared" ca="1" si="17"/>
-        <v>117393</v>
+        <v>118037</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5319,7 +5322,7 @@
       </c>
       <c r="D334">
         <f ca="1">RANDBETWEEN(102000,125000)</f>
-        <v>106205</v>
+        <v>102659</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -5362,7 +5365,7 @@
       </c>
       <c r="D337">
         <f t="shared" ref="D337:D343" ca="1" si="18">RANDBETWEEN(105000,125000)</f>
-        <v>117544</v>
+        <v>113210</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -5377,7 +5380,7 @@
       </c>
       <c r="D338">
         <f t="shared" ca="1" si="18"/>
-        <v>110079</v>
+        <v>106533</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,7 +5395,7 @@
       </c>
       <c r="D339">
         <f t="shared" ca="1" si="18"/>
-        <v>108025</v>
+        <v>117907</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -5407,7 +5410,7 @@
       </c>
       <c r="D340">
         <f t="shared" ca="1" si="18"/>
-        <v>122271</v>
+        <v>121051</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -5422,7 +5425,7 @@
       </c>
       <c r="D341">
         <f t="shared" ca="1" si="18"/>
-        <v>110455</v>
+        <v>117328</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -5437,7 +5440,7 @@
       </c>
       <c r="D342">
         <f t="shared" ca="1" si="18"/>
-        <v>107689</v>
+        <v>107135</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -5452,7 +5455,7 @@
       </c>
       <c r="D343">
         <f t="shared" ca="1" si="18"/>
-        <v>107848</v>
+        <v>107423</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,7 +5470,7 @@
       </c>
       <c r="D344">
         <f ca="1">RANDBETWEEN(105000,125000)</f>
-        <v>107685</v>
+        <v>118832</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -5510,7 +5513,7 @@
       </c>
       <c r="D347">
         <f ca="1">RANDBETWEEN(106000,127000)</f>
-        <v>119591</v>
+        <v>116536</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -5525,7 +5528,7 @@
       </c>
       <c r="D348">
         <f t="shared" ref="D348:D354" ca="1" si="19">RANDBETWEEN(106000,127000)</f>
-        <v>116217</v>
+        <v>108944</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,7 +5543,7 @@
       </c>
       <c r="D349">
         <f t="shared" ca="1" si="19"/>
-        <v>112181</v>
+        <v>111758</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,7 +5558,7 @@
       </c>
       <c r="D350">
         <f t="shared" ca="1" si="19"/>
-        <v>110217</v>
+        <v>111844</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -5570,7 +5573,7 @@
       </c>
       <c r="D351">
         <f t="shared" ca="1" si="19"/>
-        <v>107360</v>
+        <v>106588</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -5585,7 +5588,7 @@
       </c>
       <c r="D352">
         <f t="shared" ca="1" si="19"/>
-        <v>110492</v>
+        <v>110049</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,7 +5603,7 @@
       </c>
       <c r="D353">
         <f t="shared" ca="1" si="19"/>
-        <v>112900</v>
+        <v>111881</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -5615,7 +5618,7 @@
       </c>
       <c r="D354">
         <f t="shared" ca="1" si="19"/>
-        <v>116108</v>
+        <v>116405</v>
       </c>
     </row>
   </sheetData>
